--- a/auxiliary/population-transferance/src/main/resources/population_data/USSR/1937/census-1937.xlsx
+++ b/auxiliary/population-transferance/src/main/resources/population_data/USSR/1937/census-1937.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\population-transferance\src\main\resources\population_data\USSR\1937\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D5C301-E109-4639-8FCE-804433C83288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BBA264-3149-4FE1-B5EA-E2F14F6C3195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1290" windowWidth="24465" windowHeight="21540" xr2:uid="{D3203137-C349-4561-AEC3-04539B8BE158}"/>
+    <workbookView xWindow="3555" yWindow="2445" windowWidth="33210" windowHeight="21540" xr2:uid="{D3203137-C349-4561-AEC3-04539B8BE158}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,10 @@
     <t>без итого</t>
   </si>
   <si>
-    <t>только итого</t>
+    <t>не-итого?</t>
   </si>
   <si>
-    <t>не-итого?</t>
+    <t>только итого и не вкл. в итого</t>
   </si>
 </sst>
 </file>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6831B9BB-C15E-45B7-A89D-01E21CC134BE}">
-  <dimension ref="A1:T119"/>
+  <dimension ref="A1:U119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="T119" sqref="T119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -515,7 +515,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="Q3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -556,21 +556,21 @@
         <f t="shared" si="0"/>
         <v>1839519</v>
       </c>
-      <c r="Q4">
-        <f>B4*(1-$F4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ref="R4:T4" si="1">C4*(1-$F4)</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="Q4" s="1">
+        <f>B4</f>
+        <v>547699</v>
+      </c>
+      <c r="R4" s="1">
+        <f>C4</f>
+        <v>528356</v>
+      </c>
+      <c r="S4" s="1">
+        <f>D4</f>
+        <v>1897881</v>
+      </c>
+      <c r="T4" s="1">
+        <f>E4</f>
+        <v>1839519</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -593,35 +593,35 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L68" si="2">B5*$F5</f>
+        <f t="shared" ref="L5:L68" si="1">B5*$F5</f>
         <v>396644</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M68" si="3">C5*$F5</f>
+        <f t="shared" ref="M5:M68" si="2">C5*$F5</f>
         <v>387186</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N68" si="4">D5*$F5</f>
+        <f t="shared" ref="N5:N68" si="3">D5*$F5</f>
         <v>1508266</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O68" si="5">E5*$F5</f>
+        <f t="shared" ref="O5:O68" si="4">E5*$F5</f>
         <v>1478489</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q68" si="6">B5*(1-$F5)</f>
+        <f t="shared" ref="Q5:Q68" si="5">B5*(1-$F5)</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R68" si="7">C5*(1-$F5)</f>
+        <f t="shared" ref="R5:R68" si="6">C5*(1-$F5)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S68" si="8">D5*(1-$F5)</f>
+        <f t="shared" ref="S5:S68" si="7">D5*(1-$F5)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T68" si="9">E5*(1-$F5)</f>
+        <f t="shared" ref="T5:T68" si="8">E5*(1-$F5)</f>
         <v>0</v>
       </c>
     </row>
@@ -645,35 +645,35 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>316211</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>310257</v>
       </c>
       <c r="N6">
+        <f t="shared" si="3"/>
+        <v>1238000</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="4"/>
-        <v>1238000</v>
-      </c>
-      <c r="O6">
+        <v>1219216</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="5"/>
-        <v>1219216</v>
-      </c>
-      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -697,35 +697,35 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>284406</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>283041</v>
       </c>
       <c r="N7">
+        <f t="shared" si="3"/>
+        <v>1140235</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="4"/>
-        <v>1140235</v>
-      </c>
-      <c r="O7">
+        <v>1139397</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="5"/>
-        <v>1139397</v>
-      </c>
-      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -749,35 +749,35 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>337108</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>337219</v>
       </c>
       <c r="N8">
+        <f t="shared" si="3"/>
+        <v>1298643</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="4"/>
-        <v>1298643</v>
-      </c>
-      <c r="O8">
+        <v>1307766</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="5"/>
-        <v>1307766</v>
-      </c>
-      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -801,35 +801,35 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>370603</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>368238</v>
       </c>
       <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1546067</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="4"/>
-        <v>1546067</v>
-      </c>
-      <c r="O9">
+        <v>1537379</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="5"/>
-        <v>1537379</v>
-      </c>
-      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -853,35 +853,35 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>411829</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>409123</v>
       </c>
       <c r="N10">
+        <f t="shared" si="3"/>
+        <v>1713430</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="4"/>
-        <v>1713430</v>
-      </c>
-      <c r="O10">
+        <v>1710652</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="5"/>
-        <v>1710652</v>
-      </c>
-      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -905,35 +905,35 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>411760</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>416361</v>
       </c>
       <c r="N11">
+        <f t="shared" si="3"/>
+        <v>1656235</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="4"/>
-        <v>1656235</v>
-      </c>
-      <c r="O11">
+        <v>1699702</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="5"/>
-        <v>1699702</v>
-      </c>
-      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -957,35 +957,35 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>449876</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>458523</v>
       </c>
       <c r="N12">
+        <f t="shared" si="3"/>
+        <v>1759609</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="4"/>
-        <v>1759609</v>
-      </c>
-      <c r="O12">
+        <v>1789099</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="5"/>
-        <v>1789099</v>
-      </c>
-      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1009,35 +1009,35 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>435585</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>442584</v>
       </c>
       <c r="N13">
+        <f t="shared" si="3"/>
+        <v>1558673</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="4"/>
-        <v>1558673</v>
-      </c>
-      <c r="O13">
+        <v>1580105</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="5"/>
-        <v>1580105</v>
-      </c>
-      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1078,35 +1078,35 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
+        <v>3414022</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="6"/>
-        <v>3414022</v>
-      </c>
-      <c r="R14">
+        <v>3412532</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="7"/>
-        <v>3412532</v>
-      </c>
-      <c r="S14">
+        <v>13419258</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="8"/>
-        <v>13419258</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="9"/>
         <v>13461805</v>
       </c>
     </row>
@@ -1130,35 +1130,35 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>486018</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>494543</v>
       </c>
       <c r="N15">
+        <f t="shared" si="3"/>
+        <v>1747720</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="4"/>
-        <v>1747720</v>
-      </c>
-      <c r="O15">
+        <v>1757344</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="5"/>
-        <v>1757344</v>
-      </c>
-      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1182,35 +1182,35 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>464063</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>468902</v>
       </c>
       <c r="N16">
+        <f t="shared" si="3"/>
+        <v>1540565</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="4"/>
-        <v>1540565</v>
-      </c>
-      <c r="O16">
+        <v>1539841</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="5"/>
-        <v>1539841</v>
-      </c>
-      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1234,35 +1234,35 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>529518</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>525895</v>
       </c>
       <c r="N17">
+        <f t="shared" si="3"/>
+        <v>1843485</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="4"/>
-        <v>1843485</v>
-      </c>
-      <c r="O17">
+        <v>1792889</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="5"/>
-        <v>1792889</v>
-      </c>
-      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1286,35 +1286,35 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>434507</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>440311</v>
       </c>
       <c r="N18">
+        <f t="shared" si="3"/>
+        <v>1492576</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="4"/>
-        <v>1492576</v>
-      </c>
-      <c r="O18">
+        <v>1464111</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="5"/>
-        <v>1464111</v>
-      </c>
-      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1338,35 +1338,35 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>345960</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>358520</v>
       </c>
       <c r="N19">
+        <f t="shared" si="3"/>
+        <v>1255492</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="4"/>
-        <v>1255492</v>
-      </c>
-      <c r="O19">
+        <v>1230174</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="5"/>
-        <v>1230174</v>
-      </c>
-      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1390,35 +1390,35 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>334924</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>345163</v>
       </c>
       <c r="N20">
+        <f t="shared" si="3"/>
+        <v>1179402</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="4"/>
-        <v>1179402</v>
-      </c>
-      <c r="O20">
+        <v>1125733</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="5"/>
-        <v>1125733</v>
-      </c>
-      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1442,35 +1442,35 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>345188</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>356058</v>
       </c>
       <c r="N21">
+        <f t="shared" si="3"/>
+        <v>956961</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="4"/>
-        <v>956961</v>
-      </c>
-      <c r="O21">
+        <v>971398</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="5"/>
-        <v>971398</v>
-      </c>
-      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1494,35 +1494,35 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>352996</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>379391</v>
       </c>
       <c r="N22">
+        <f t="shared" si="3"/>
+        <v>827297</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="4"/>
-        <v>827297</v>
-      </c>
-      <c r="O22">
+        <v>920563</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="5"/>
-        <v>920563</v>
-      </c>
-      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1546,35 +1546,35 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>492695</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>504559</v>
       </c>
       <c r="N23">
+        <f t="shared" si="3"/>
+        <v>947677</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="4"/>
-        <v>947677</v>
-      </c>
-      <c r="O23">
+        <v>1049749</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="5"/>
-        <v>1049749</v>
-      </c>
-      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1598,35 +1598,35 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>346238</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>369459</v>
       </c>
       <c r="N24">
+        <f t="shared" si="3"/>
+        <v>587076</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="4"/>
-        <v>587076</v>
-      </c>
-      <c r="O24">
+        <v>744840</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="5"/>
-        <v>744840</v>
-      </c>
-      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1667,35 +1667,35 @@
       </c>
       <c r="K25" s="1"/>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q25">
+        <v>4132107</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="6"/>
-        <v>4132107</v>
-      </c>
-      <c r="R25">
+        <v>4242801</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="7"/>
-        <v>4242801</v>
-      </c>
-      <c r="S25">
+        <v>12378251</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="8"/>
-        <v>12378251</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="9"/>
         <v>12596642</v>
       </c>
     </row>
@@ -1719,35 +1719,35 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>423720</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>482570</v>
       </c>
       <c r="N26">
+        <f t="shared" si="3"/>
+        <v>790114</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="4"/>
-        <v>790114</v>
-      </c>
-      <c r="O26">
+        <v>1061199</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="5"/>
-        <v>1061199</v>
-      </c>
-      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1771,35 +1771,35 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>400830</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>470518</v>
       </c>
       <c r="N27">
+        <f t="shared" si="3"/>
+        <v>748154</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="4"/>
-        <v>748154</v>
-      </c>
-      <c r="O27">
+        <v>888045</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="5"/>
-        <v>888045</v>
-      </c>
-      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1823,35 +1823,35 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>410203</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>652085</v>
       </c>
       <c r="N28">
+        <f t="shared" si="3"/>
+        <v>795145</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="4"/>
-        <v>795145</v>
-      </c>
-      <c r="O28">
+        <v>1265518</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="5"/>
-        <v>1265518</v>
-      </c>
-      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1875,35 +1875,35 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>379032</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>597993</v>
       </c>
       <c r="N29">
+        <f t="shared" si="3"/>
+        <v>701304</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="4"/>
-        <v>701304</v>
-      </c>
-      <c r="O29">
+        <v>1111603</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="5"/>
-        <v>1111603</v>
-      </c>
-      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1927,35 +1927,35 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>566166</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>619942</v>
       </c>
       <c r="N30">
+        <f t="shared" si="3"/>
+        <v>936614</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="4"/>
-        <v>936614</v>
-      </c>
-      <c r="O30">
+        <v>1141061</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="5"/>
-        <v>1141061</v>
-      </c>
-      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1979,35 +1979,35 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>592550</v>
       </c>
       <c r="M31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>586733</v>
       </c>
       <c r="N31">
+        <f t="shared" si="3"/>
+        <v>1051142</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="4"/>
-        <v>1051142</v>
-      </c>
-      <c r="O31">
+        <v>1278096</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="5"/>
-        <v>1278096</v>
-      </c>
-      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2031,35 +2031,35 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>615656</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>589831</v>
       </c>
       <c r="N32">
+        <f t="shared" si="3"/>
+        <v>1079276</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="4"/>
-        <v>1079276</v>
-      </c>
-      <c r="O32">
+        <v>1159262</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="5"/>
-        <v>1159262</v>
-      </c>
-      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2083,35 +2083,35 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>480271</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>477479</v>
       </c>
       <c r="N33">
+        <f t="shared" si="3"/>
+        <v>878448</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="4"/>
-        <v>878448</v>
-      </c>
-      <c r="O33">
+        <v>980121</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="5"/>
-        <v>980121</v>
-      </c>
-      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2135,35 +2135,35 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>486498</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>513356</v>
       </c>
       <c r="N34">
+        <f t="shared" si="3"/>
+        <v>923135</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="4"/>
-        <v>923135</v>
-      </c>
-      <c r="O34">
+        <v>1040119</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="5"/>
-        <v>1040119</v>
-      </c>
-      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2187,35 +2187,35 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>462884</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>431146</v>
       </c>
       <c r="N35">
+        <f t="shared" si="3"/>
+        <v>830057</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="4"/>
-        <v>830057</v>
-      </c>
-      <c r="O35">
+        <v>838253</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="5"/>
-        <v>838253</v>
-      </c>
-      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2255,35 +2255,35 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q36">
+        <v>4817810</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="6"/>
-        <v>4817810</v>
-      </c>
-      <c r="R36">
+        <v>5421653</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="7"/>
-        <v>5421653</v>
-      </c>
-      <c r="S36">
+        <v>8733407</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="8"/>
-        <v>8733407</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="9"/>
         <v>10763277</v>
       </c>
     </row>
@@ -2307,35 +2307,35 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>545269</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>535479</v>
       </c>
       <c r="N37">
+        <f t="shared" si="3"/>
+        <v>1091713</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="4"/>
-        <v>1091713</v>
-      </c>
-      <c r="O37">
+        <v>1274218</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="5"/>
-        <v>1274218</v>
-      </c>
-      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2359,35 +2359,35 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>384258</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>349268</v>
       </c>
       <c r="N38">
+        <f t="shared" si="3"/>
+        <v>723912</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="4"/>
-        <v>723912</v>
-      </c>
-      <c r="O38">
+        <v>674315</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="5"/>
-        <v>674315</v>
-      </c>
-      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2411,35 +2411,35 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>437870</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>427529</v>
       </c>
       <c r="N39">
+        <f t="shared" si="3"/>
+        <v>857724</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="4"/>
-        <v>857724</v>
-      </c>
-      <c r="O39">
+        <v>869553</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="5"/>
-        <v>869553</v>
-      </c>
-      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2463,35 +2463,35 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>398134</v>
       </c>
       <c r="M40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>395245</v>
       </c>
       <c r="N40">
+        <f t="shared" si="3"/>
+        <v>792973</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="4"/>
-        <v>792973</v>
-      </c>
-      <c r="O40">
+        <v>824027</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="5"/>
-        <v>824027</v>
-      </c>
-      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2515,35 +2515,35 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>333972</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>353036</v>
       </c>
       <c r="N41">
+        <f t="shared" si="3"/>
+        <v>676688</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="4"/>
-        <v>676688</v>
-      </c>
-      <c r="O41">
+        <v>705883</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="5"/>
-        <v>705883</v>
-      </c>
-      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2567,35 +2567,35 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>298328</v>
       </c>
       <c r="M42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>372562</v>
       </c>
       <c r="N42">
+        <f t="shared" si="3"/>
+        <v>685515</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="4"/>
-        <v>685515</v>
-      </c>
-      <c r="O42">
+        <v>906272</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="5"/>
-        <v>906272</v>
-      </c>
-      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2619,35 +2619,35 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>395864</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>452043</v>
       </c>
       <c r="N43">
+        <f t="shared" si="3"/>
+        <v>841580</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="4"/>
-        <v>841580</v>
-      </c>
-      <c r="O43">
+        <v>883649</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="5"/>
-        <v>883649</v>
-      </c>
-      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2671,35 +2671,35 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>274304</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>319094</v>
       </c>
       <c r="N44">
+        <f t="shared" si="3"/>
+        <v>596668</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="4"/>
-        <v>596668</v>
-      </c>
-      <c r="O44">
+        <v>708828</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="5"/>
-        <v>708828</v>
-      </c>
-      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2723,35 +2723,35 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>301489</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>366158</v>
       </c>
       <c r="N45">
+        <f t="shared" si="3"/>
+        <v>643780</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="4"/>
-        <v>643780</v>
-      </c>
-      <c r="O45">
+        <v>770214</v>
+      </c>
+      <c r="Q45">
         <f t="shared" si="5"/>
-        <v>770214</v>
-      </c>
-      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2775,35 +2775,35 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>267380</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>288882</v>
       </c>
       <c r="N46">
+        <f t="shared" si="3"/>
+        <v>545203</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="4"/>
-        <v>545203</v>
-      </c>
-      <c r="O46">
+        <v>582511</v>
+      </c>
+      <c r="Q46">
         <f t="shared" si="5"/>
-        <v>582511</v>
-      </c>
-      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2843,35 +2843,35 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q47">
+        <v>3636868</v>
+      </c>
+      <c r="R47">
         <f t="shared" si="6"/>
-        <v>3636868</v>
-      </c>
-      <c r="R47">
+        <v>3859296</v>
+      </c>
+      <c r="S47">
         <f t="shared" si="7"/>
-        <v>3859296</v>
-      </c>
-      <c r="S47">
+        <v>7455756</v>
+      </c>
+      <c r="T47">
         <f t="shared" si="8"/>
-        <v>7455756</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="9"/>
         <v>8199470</v>
       </c>
     </row>
@@ -2895,35 +2895,35 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>303445</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>364578</v>
       </c>
       <c r="N48">
+        <f t="shared" si="3"/>
+        <v>695691</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="4"/>
-        <v>695691</v>
-      </c>
-      <c r="O48">
+        <v>955092</v>
+      </c>
+      <c r="Q48">
         <f t="shared" si="5"/>
-        <v>955092</v>
-      </c>
-      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2947,35 +2947,35 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>207822</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>193808</v>
       </c>
       <c r="N49">
+        <f t="shared" si="3"/>
+        <v>429587</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="4"/>
-        <v>429587</v>
-      </c>
-      <c r="O49">
+        <v>410279</v>
+      </c>
+      <c r="Q49">
         <f t="shared" si="5"/>
-        <v>410279</v>
-      </c>
-      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2999,35 +2999,35 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>258377</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>259143</v>
       </c>
       <c r="N50">
+        <f t="shared" si="3"/>
+        <v>528886</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="4"/>
-        <v>528886</v>
-      </c>
-      <c r="O50">
+        <v>558338</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="5"/>
-        <v>558338</v>
-      </c>
-      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3051,35 +3051,35 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>224948</v>
       </c>
       <c r="M51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>226920</v>
       </c>
       <c r="N51">
+        <f t="shared" si="3"/>
+        <v>446102</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="4"/>
-        <v>446102</v>
-      </c>
-      <c r="O51">
+        <v>478744</v>
+      </c>
+      <c r="Q51">
         <f t="shared" si="5"/>
-        <v>478744</v>
-      </c>
-      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3103,35 +3103,35 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>189574</v>
       </c>
       <c r="M52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>192417</v>
       </c>
       <c r="N52">
+        <f t="shared" si="3"/>
+        <v>380408</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="4"/>
-        <v>380408</v>
-      </c>
-      <c r="O52">
+        <v>421720</v>
+      </c>
+      <c r="Q52">
         <f t="shared" si="5"/>
-        <v>421720</v>
-      </c>
-      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3155,35 +3155,35 @@
         <v>1</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>219404</v>
       </c>
       <c r="M53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>241159</v>
       </c>
       <c r="N53">
+        <f t="shared" si="3"/>
+        <v>511589</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="4"/>
-        <v>511589</v>
-      </c>
-      <c r="O53">
+        <v>713584</v>
+      </c>
+      <c r="Q53">
         <f t="shared" si="5"/>
-        <v>713584</v>
-      </c>
-      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3207,35 +3207,35 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>204009</v>
       </c>
       <c r="M54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>195281</v>
       </c>
       <c r="N54">
+        <f t="shared" si="3"/>
+        <v>433218</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="4"/>
-        <v>433218</v>
-      </c>
-      <c r="O54">
+        <v>471425</v>
+      </c>
+      <c r="Q54">
         <f t="shared" si="5"/>
-        <v>471425</v>
-      </c>
-      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3259,35 +3259,35 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>159603</v>
       </c>
       <c r="M55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>174054</v>
       </c>
       <c r="N55">
+        <f t="shared" si="3"/>
+        <v>343772</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="4"/>
-        <v>343772</v>
-      </c>
-      <c r="O55">
+        <v>433107</v>
+      </c>
+      <c r="Q55">
         <f t="shared" si="5"/>
-        <v>433107</v>
-      </c>
-      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3311,35 +3311,35 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>215546</v>
       </c>
       <c r="M56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>235170</v>
       </c>
       <c r="N56">
+        <f t="shared" si="3"/>
+        <v>443889</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="4"/>
-        <v>443889</v>
-      </c>
-      <c r="O56">
+        <v>531370</v>
+      </c>
+      <c r="Q56">
         <f t="shared" si="5"/>
-        <v>531370</v>
-      </c>
-      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3363,35 +3363,35 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>167201</v>
       </c>
       <c r="M57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170981</v>
       </c>
       <c r="N57">
+        <f t="shared" si="3"/>
+        <v>336937</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="4"/>
-        <v>336937</v>
-      </c>
-      <c r="O57">
+        <v>403729</v>
+      </c>
+      <c r="Q57">
         <f t="shared" si="5"/>
-        <v>403729</v>
-      </c>
-      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3431,35 +3431,35 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q58">
+        <v>2149929</v>
+      </c>
+      <c r="R58">
         <f t="shared" si="6"/>
-        <v>2149929</v>
-      </c>
-      <c r="R58">
+        <v>2253511</v>
+      </c>
+      <c r="S58">
         <f t="shared" si="7"/>
-        <v>2253511</v>
-      </c>
-      <c r="S58">
+        <v>4550079</v>
+      </c>
+      <c r="T58">
         <f t="shared" si="8"/>
-        <v>4550079</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="9"/>
         <v>5377388</v>
       </c>
     </row>
@@ -3483,35 +3483,35 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>209531</v>
       </c>
       <c r="M59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>263625</v>
       </c>
       <c r="N59">
+        <f t="shared" si="3"/>
+        <v>514043</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="4"/>
-        <v>514043</v>
-      </c>
-      <c r="O59">
+        <v>859599</v>
+      </c>
+      <c r="Q59">
         <f t="shared" si="5"/>
-        <v>859599</v>
-      </c>
-      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3535,35 +3535,35 @@
         <v>1</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>133706</v>
       </c>
       <c r="M60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>121972</v>
       </c>
       <c r="N60">
+        <f t="shared" si="3"/>
+        <v>283131</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="4"/>
-        <v>283131</v>
-      </c>
-      <c r="O60">
+        <v>301061</v>
+      </c>
+      <c r="Q60">
         <f t="shared" si="5"/>
-        <v>301061</v>
-      </c>
-      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3587,35 +3587,35 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>167977</v>
       </c>
       <c r="M61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>168723</v>
       </c>
       <c r="N61">
+        <f t="shared" si="3"/>
+        <v>360873</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="4"/>
-        <v>360873</v>
-      </c>
-      <c r="O61">
+        <v>409837</v>
+      </c>
+      <c r="Q61">
         <f t="shared" si="5"/>
-        <v>409837</v>
-      </c>
-      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3639,35 +3639,35 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>141537</v>
       </c>
       <c r="M62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>151970</v>
       </c>
       <c r="N62">
+        <f t="shared" si="3"/>
+        <v>298253</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="4"/>
-        <v>298253</v>
-      </c>
-      <c r="O62">
+        <v>354135</v>
+      </c>
+      <c r="Q62">
         <f t="shared" si="5"/>
-        <v>354135</v>
-      </c>
-      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3691,35 +3691,35 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>124065</v>
       </c>
       <c r="M63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>138906</v>
       </c>
       <c r="N63">
+        <f t="shared" si="3"/>
+        <v>260824</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="4"/>
-        <v>260824</v>
-      </c>
-      <c r="O63">
+        <v>321626</v>
+      </c>
+      <c r="Q63">
         <f t="shared" si="5"/>
-        <v>321626</v>
-      </c>
-      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3743,35 +3743,35 @@
         <v>1</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>137118</v>
       </c>
       <c r="M64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>196316</v>
       </c>
       <c r="N64">
+        <f t="shared" si="3"/>
+        <v>368078</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="4"/>
-        <v>368078</v>
-      </c>
-      <c r="O64">
+        <v>627684</v>
+      </c>
+      <c r="Q64">
         <f t="shared" si="5"/>
-        <v>627684</v>
-      </c>
-      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3795,35 +3795,35 @@
         <v>1</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>134490</v>
       </c>
       <c r="M65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>167205</v>
       </c>
       <c r="N65">
+        <f t="shared" si="3"/>
+        <v>314632</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="4"/>
-        <v>314632</v>
-      </c>
-      <c r="O65">
+        <v>423044</v>
+      </c>
+      <c r="Q65">
         <f t="shared" si="5"/>
-        <v>423044</v>
-      </c>
-      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3847,35 +3847,35 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96524</v>
       </c>
       <c r="M66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>128576</v>
       </c>
       <c r="N66">
+        <f t="shared" si="3"/>
+        <v>234391</v>
+      </c>
+      <c r="O66">
         <f t="shared" si="4"/>
-        <v>234391</v>
-      </c>
-      <c r="O66">
+        <v>340582</v>
+      </c>
+      <c r="Q66">
         <f t="shared" si="5"/>
-        <v>340582</v>
-      </c>
-      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3899,35 +3899,35 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96327</v>
       </c>
       <c r="M67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>135912</v>
       </c>
       <c r="N67">
+        <f t="shared" si="3"/>
+        <v>239708</v>
+      </c>
+      <c r="O67">
         <f t="shared" si="4"/>
-        <v>239708</v>
-      </c>
-      <c r="O67">
+        <v>356454</v>
+      </c>
+      <c r="Q67">
         <f t="shared" si="5"/>
-        <v>356454</v>
-      </c>
-      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3951,35 +3951,35 @@
         <v>1</v>
       </c>
       <c r="L68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84282</v>
       </c>
       <c r="M68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>101221</v>
       </c>
       <c r="N68">
+        <f t="shared" si="3"/>
+        <v>210862</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="4"/>
-        <v>210862</v>
-      </c>
-      <c r="O68">
+        <v>279109</v>
+      </c>
+      <c r="Q68">
         <f t="shared" si="5"/>
-        <v>279109</v>
-      </c>
-      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4019,35 +4019,35 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L115" si="10">B69*$F69</f>
+        <f t="shared" ref="L69:L115" si="9">B69*$F69</f>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M115" si="11">C69*$F69</f>
+        <f t="shared" ref="M69:M115" si="10">C69*$F69</f>
         <v>0</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N115" si="12">D69*$F69</f>
+        <f t="shared" ref="N69:N115" si="11">D69*$F69</f>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" ref="O69:O115" si="13">E69*$F69</f>
+        <f t="shared" ref="O69:O115" si="12">E69*$F69</f>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f t="shared" ref="Q69:Q115" si="14">B69*(1-$F69)</f>
+        <f t="shared" ref="Q69:Q115" si="13">B69*(1-$F69)</f>
         <v>1325557</v>
       </c>
       <c r="R69">
-        <f t="shared" ref="R69:R115" si="15">C69*(1-$F69)</f>
+        <f t="shared" ref="R69:R115" si="14">C69*(1-$F69)</f>
         <v>1574426</v>
       </c>
       <c r="S69">
-        <f t="shared" ref="S69:S115" si="16">D69*(1-$F69)</f>
+        <f t="shared" ref="S69:S115" si="15">D69*(1-$F69)</f>
         <v>3084795</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T115" si="17">E69*(1-$F69)</f>
+        <f t="shared" ref="T69:T115" si="16">E69*(1-$F69)</f>
         <v>4273131</v>
       </c>
     </row>
@@ -4071,35 +4071,35 @@
         <v>1</v>
       </c>
       <c r="L70">
+        <f t="shared" si="9"/>
+        <v>121803</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="10"/>
-        <v>121803</v>
-      </c>
-      <c r="M70">
+        <v>204278</v>
+      </c>
+      <c r="N70">
         <f t="shared" si="11"/>
-        <v>204278</v>
-      </c>
-      <c r="N70">
+        <v>441446</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="12"/>
-        <v>441446</v>
-      </c>
-      <c r="O70">
+        <v>796139</v>
+      </c>
+      <c r="Q70">
         <f t="shared" si="13"/>
-        <v>796139</v>
-      </c>
-      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4123,35 +4123,35 @@
         <v>1</v>
       </c>
       <c r="L71">
+        <f t="shared" si="9"/>
+        <v>63654</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="10"/>
-        <v>63654</v>
-      </c>
-      <c r="M71">
+        <v>76292</v>
+      </c>
+      <c r="N71">
         <f t="shared" si="11"/>
-        <v>76292</v>
-      </c>
-      <c r="N71">
+        <v>199571</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="12"/>
-        <v>199571</v>
-      </c>
-      <c r="O71">
+        <v>219091</v>
+      </c>
+      <c r="Q71">
         <f t="shared" si="13"/>
-        <v>219091</v>
-      </c>
-      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4175,35 +4175,35 @@
         <v>1</v>
       </c>
       <c r="L72">
+        <f t="shared" si="9"/>
+        <v>80098</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="10"/>
-        <v>80098</v>
-      </c>
-      <c r="M72">
+        <v>107556</v>
+      </c>
+      <c r="N72">
         <f t="shared" si="11"/>
-        <v>107556</v>
-      </c>
-      <c r="N72">
+        <v>250295</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="12"/>
-        <v>250295</v>
-      </c>
-      <c r="O72">
+        <v>308676</v>
+      </c>
+      <c r="Q72">
         <f t="shared" si="13"/>
-        <v>308676</v>
-      </c>
-      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4227,35 +4227,35 @@
         <v>1</v>
       </c>
       <c r="L73">
+        <f t="shared" si="9"/>
+        <v>74204</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="10"/>
-        <v>74204</v>
-      </c>
-      <c r="M73">
+        <v>107011</v>
+      </c>
+      <c r="N73">
         <f t="shared" si="11"/>
-        <v>107011</v>
-      </c>
-      <c r="N73">
+        <v>229938</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="12"/>
-        <v>229938</v>
-      </c>
-      <c r="O73">
+        <v>293855</v>
+      </c>
+      <c r="Q73">
         <f t="shared" si="13"/>
-        <v>293855</v>
-      </c>
-      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4279,35 +4279,35 @@
         <v>1</v>
       </c>
       <c r="L74">
+        <f t="shared" si="9"/>
+        <v>59801</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="10"/>
-        <v>59801</v>
-      </c>
-      <c r="M74">
+        <v>87574</v>
+      </c>
+      <c r="N74">
         <f t="shared" si="11"/>
-        <v>87574</v>
-      </c>
-      <c r="N74">
+        <v>181935</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="12"/>
-        <v>181935</v>
-      </c>
-      <c r="O74">
+        <v>233828</v>
+      </c>
+      <c r="Q74">
         <f t="shared" si="13"/>
-        <v>233828</v>
-      </c>
-      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4331,35 +4331,35 @@
         <v>1</v>
       </c>
       <c r="L75">
+        <f t="shared" si="9"/>
+        <v>73944</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="10"/>
-        <v>73944</v>
-      </c>
-      <c r="M75">
+        <v>134214</v>
+      </c>
+      <c r="N75">
         <f t="shared" si="11"/>
-        <v>134214</v>
-      </c>
-      <c r="N75">
+        <v>278692</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="12"/>
-        <v>278692</v>
-      </c>
-      <c r="O75">
+        <v>447642</v>
+      </c>
+      <c r="Q75">
         <f t="shared" si="13"/>
-        <v>447642</v>
-      </c>
-      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4383,35 +4383,35 @@
         <v>1</v>
       </c>
       <c r="L76">
+        <f t="shared" si="9"/>
+        <v>60131</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="10"/>
-        <v>60131</v>
-      </c>
-      <c r="M76">
+        <v>95044</v>
+      </c>
+      <c r="N76">
         <f t="shared" si="11"/>
-        <v>95044</v>
-      </c>
-      <c r="N76">
+        <v>206540</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="12"/>
-        <v>206540</v>
-      </c>
-      <c r="O76">
+        <v>264049</v>
+      </c>
+      <c r="Q76">
         <f t="shared" si="13"/>
-        <v>264049</v>
-      </c>
-      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4435,35 +4435,35 @@
         <v>1</v>
       </c>
       <c r="L77">
+        <f t="shared" si="9"/>
+        <v>45616</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="10"/>
-        <v>45616</v>
-      </c>
-      <c r="M77">
+        <v>84303</v>
+      </c>
+      <c r="N77">
         <f t="shared" si="11"/>
-        <v>84303</v>
-      </c>
-      <c r="N77">
+        <v>170888</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="12"/>
-        <v>170888</v>
-      </c>
-      <c r="O77">
+        <v>250078</v>
+      </c>
+      <c r="Q77">
         <f t="shared" si="13"/>
-        <v>250078</v>
-      </c>
-      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4487,35 +4487,35 @@
         <v>1</v>
       </c>
       <c r="L78">
+        <f t="shared" si="9"/>
+        <v>39094</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="10"/>
-        <v>39094</v>
-      </c>
-      <c r="M78">
+        <v>74614</v>
+      </c>
+      <c r="N78">
         <f t="shared" si="11"/>
-        <v>74614</v>
-      </c>
-      <c r="N78">
+        <v>135552</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="12"/>
-        <v>135552</v>
-      </c>
-      <c r="O78">
+        <v>195879</v>
+      </c>
+      <c r="Q78">
         <f t="shared" si="13"/>
-        <v>195879</v>
-      </c>
-      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4539,35 +4539,35 @@
         <v>1</v>
       </c>
       <c r="L79">
+        <f t="shared" si="9"/>
+        <v>28046</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="10"/>
-        <v>28046</v>
-      </c>
-      <c r="M79">
+        <v>49342</v>
+      </c>
+      <c r="N79">
         <f t="shared" si="11"/>
-        <v>49342</v>
-      </c>
-      <c r="N79">
+        <v>101580</v>
+      </c>
+      <c r="O79">
         <f t="shared" si="12"/>
-        <v>101580</v>
-      </c>
-      <c r="O79">
+        <v>141191</v>
+      </c>
+      <c r="Q79">
         <f t="shared" si="13"/>
-        <v>141191</v>
-      </c>
-      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4607,35 +4607,35 @@
         <v>0</v>
       </c>
       <c r="L80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O80">
+      <c r="Q80">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q80">
+        <v>646391</v>
+      </c>
+      <c r="R80">
         <f t="shared" si="14"/>
-        <v>646391</v>
-      </c>
-      <c r="R80">
+        <v>1020228</v>
+      </c>
+      <c r="S80">
         <f t="shared" si="15"/>
-        <v>1020228</v>
-      </c>
-      <c r="S80">
+        <v>2196437</v>
+      </c>
+      <c r="T80">
         <f t="shared" si="16"/>
-        <v>2196437</v>
-      </c>
-      <c r="T80">
-        <f t="shared" si="17"/>
         <v>3150428</v>
       </c>
     </row>
@@ -4659,35 +4659,35 @@
         <v>1</v>
       </c>
       <c r="L81">
+        <f t="shared" si="9"/>
+        <v>47667</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="10"/>
-        <v>47667</v>
-      </c>
-      <c r="M81">
+        <v>113120</v>
+      </c>
+      <c r="N81">
         <f t="shared" si="11"/>
-        <v>113120</v>
-      </c>
-      <c r="N81">
+        <v>233454</v>
+      </c>
+      <c r="O81">
         <f t="shared" si="12"/>
-        <v>233454</v>
-      </c>
-      <c r="O81">
+        <v>466098</v>
+      </c>
+      <c r="Q81">
         <f t="shared" si="13"/>
-        <v>466098</v>
-      </c>
-      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4711,35 +4711,35 @@
         <v>1</v>
       </c>
       <c r="L82">
+        <f t="shared" si="9"/>
+        <v>19738</v>
+      </c>
+      <c r="M82">
         <f t="shared" si="10"/>
-        <v>19738</v>
-      </c>
-      <c r="M82">
+        <v>31949</v>
+      </c>
+      <c r="N82">
         <f t="shared" si="11"/>
-        <v>31949</v>
-      </c>
-      <c r="N82">
+        <v>79568</v>
+      </c>
+      <c r="O82">
         <f t="shared" si="12"/>
-        <v>79568</v>
-      </c>
-      <c r="O82">
+        <v>91122</v>
+      </c>
+      <c r="Q82">
         <f t="shared" si="13"/>
-        <v>91122</v>
-      </c>
-      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4763,35 +4763,35 @@
         <v>1</v>
       </c>
       <c r="L83">
+        <f t="shared" si="9"/>
+        <v>26219</v>
+      </c>
+      <c r="M83">
         <f t="shared" si="10"/>
-        <v>26219</v>
-      </c>
-      <c r="M83">
+        <v>49662</v>
+      </c>
+      <c r="N83">
         <f t="shared" si="11"/>
-        <v>49662</v>
-      </c>
-      <c r="N83">
+        <v>107275</v>
+      </c>
+      <c r="O83">
         <f t="shared" si="12"/>
-        <v>107275</v>
-      </c>
-      <c r="O83">
+        <v>136387</v>
+      </c>
+      <c r="Q83">
         <f t="shared" si="13"/>
-        <v>136387</v>
-      </c>
-      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4815,35 +4815,35 @@
         <v>1</v>
       </c>
       <c r="L84">
+        <f t="shared" si="9"/>
+        <v>20523</v>
+      </c>
+      <c r="M84">
         <f t="shared" si="10"/>
-        <v>20523</v>
-      </c>
-      <c r="M84">
+        <v>41665</v>
+      </c>
+      <c r="N84">
         <f t="shared" si="11"/>
-        <v>41665</v>
-      </c>
-      <c r="N84">
+        <v>86025</v>
+      </c>
+      <c r="O84">
         <f t="shared" si="12"/>
-        <v>86025</v>
-      </c>
-      <c r="O84">
+        <v>113548</v>
+      </c>
+      <c r="Q84">
         <f t="shared" si="13"/>
-        <v>113548</v>
-      </c>
-      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4867,35 +4867,35 @@
         <v>1</v>
       </c>
       <c r="L85">
+        <f t="shared" si="9"/>
+        <v>15796</v>
+      </c>
+      <c r="M85">
         <f t="shared" si="10"/>
-        <v>15796</v>
-      </c>
-      <c r="M85">
+        <v>31222</v>
+      </c>
+      <c r="N85">
         <f t="shared" si="11"/>
-        <v>31222</v>
-      </c>
-      <c r="N85">
+        <v>64914</v>
+      </c>
+      <c r="O85">
         <f t="shared" si="12"/>
-        <v>64914</v>
-      </c>
-      <c r="O85">
+        <v>85302</v>
+      </c>
+      <c r="Q85">
         <f t="shared" si="13"/>
-        <v>85302</v>
-      </c>
-      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4919,35 +4919,35 @@
         <v>1</v>
       </c>
       <c r="L86">
+        <f t="shared" si="9"/>
+        <v>23215</v>
+      </c>
+      <c r="M86">
         <f t="shared" si="10"/>
-        <v>23215</v>
-      </c>
-      <c r="M86">
+        <v>55260</v>
+      </c>
+      <c r="N86">
         <f t="shared" si="11"/>
-        <v>55260</v>
-      </c>
-      <c r="N86">
+        <v>118900</v>
+      </c>
+      <c r="O86">
         <f t="shared" si="12"/>
-        <v>118900</v>
-      </c>
-      <c r="O86">
+        <v>197779</v>
+      </c>
+      <c r="Q86">
         <f t="shared" si="13"/>
-        <v>197779</v>
-      </c>
-      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4971,35 +4971,35 @@
         <v>1</v>
       </c>
       <c r="L87">
+        <f t="shared" si="9"/>
+        <v>15102</v>
+      </c>
+      <c r="M87">
         <f t="shared" si="10"/>
-        <v>15102</v>
-      </c>
-      <c r="M87">
+        <v>30358</v>
+      </c>
+      <c r="N87">
         <f t="shared" si="11"/>
-        <v>30358</v>
-      </c>
-      <c r="N87">
+        <v>66874</v>
+      </c>
+      <c r="O87">
         <f t="shared" si="12"/>
-        <v>66874</v>
-      </c>
-      <c r="O87">
+        <v>85020</v>
+      </c>
+      <c r="Q87">
         <f t="shared" si="13"/>
-        <v>85020</v>
-      </c>
-      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T87">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5023,35 +5023,35 @@
         <v>1</v>
       </c>
       <c r="L88">
+        <f t="shared" si="9"/>
+        <v>9889</v>
+      </c>
+      <c r="M88">
         <f t="shared" si="10"/>
-        <v>9889</v>
-      </c>
-      <c r="M88">
+        <v>22264</v>
+      </c>
+      <c r="N88">
         <f t="shared" si="11"/>
-        <v>22264</v>
-      </c>
-      <c r="N88">
+        <v>50626</v>
+      </c>
+      <c r="O88">
         <f t="shared" si="12"/>
-        <v>50626</v>
-      </c>
-      <c r="O88">
+        <v>70718</v>
+      </c>
+      <c r="Q88">
         <f t="shared" si="13"/>
-        <v>70718</v>
-      </c>
-      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5075,35 +5075,35 @@
         <v>1</v>
       </c>
       <c r="L89">
+        <f t="shared" si="9"/>
+        <v>9294</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="10"/>
-        <v>9294</v>
-      </c>
-      <c r="M89">
+        <v>22235</v>
+      </c>
+      <c r="N89">
         <f t="shared" si="11"/>
-        <v>22235</v>
-      </c>
-      <c r="N89">
+        <v>47922</v>
+      </c>
+      <c r="O89">
         <f t="shared" si="12"/>
-        <v>47922</v>
-      </c>
-      <c r="O89">
+        <v>71671</v>
+      </c>
+      <c r="Q89">
         <f t="shared" si="13"/>
-        <v>71671</v>
-      </c>
-      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S89">
+      <c r="T89">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5127,35 +5127,35 @@
         <v>1</v>
       </c>
       <c r="L90">
+        <f t="shared" si="9"/>
+        <v>5059</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="10"/>
-        <v>5059</v>
-      </c>
-      <c r="M90">
+        <v>11628</v>
+      </c>
+      <c r="N90">
         <f t="shared" si="11"/>
-        <v>11628</v>
-      </c>
-      <c r="N90">
+        <v>27579</v>
+      </c>
+      <c r="O90">
         <f t="shared" si="12"/>
-        <v>27579</v>
-      </c>
-      <c r="O90">
+        <v>41870</v>
+      </c>
+      <c r="Q90">
         <f t="shared" si="13"/>
-        <v>41870</v>
-      </c>
-      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5195,35 +5195,35 @@
         <v>0</v>
       </c>
       <c r="L91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M91">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O91">
+      <c r="Q91">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q91">
+        <v>192502</v>
+      </c>
+      <c r="R91">
         <f t="shared" si="14"/>
-        <v>192502</v>
-      </c>
-      <c r="R91">
+        <v>409363</v>
+      </c>
+      <c r="S91">
         <f t="shared" si="15"/>
-        <v>409363</v>
-      </c>
-      <c r="S91">
+        <v>883137</v>
+      </c>
+      <c r="T91">
         <f t="shared" si="16"/>
-        <v>883137</v>
-      </c>
-      <c r="T91">
-        <f t="shared" si="17"/>
         <v>1359515</v>
       </c>
     </row>
@@ -5247,35 +5247,35 @@
         <v>1</v>
       </c>
       <c r="L92">
+        <f t="shared" si="9"/>
+        <v>10406</v>
+      </c>
+      <c r="M92">
         <f t="shared" si="10"/>
-        <v>10406</v>
-      </c>
-      <c r="M92">
+        <v>32660</v>
+      </c>
+      <c r="N92">
         <f t="shared" si="11"/>
-        <v>32660</v>
-      </c>
-      <c r="N92">
+        <v>80341</v>
+      </c>
+      <c r="O92">
         <f t="shared" si="12"/>
-        <v>80341</v>
-      </c>
-      <c r="O92">
+        <v>183312</v>
+      </c>
+      <c r="Q92">
         <f t="shared" si="13"/>
-        <v>183312</v>
-      </c>
-      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T92">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5299,35 +5299,35 @@
         <v>1</v>
       </c>
       <c r="L93">
+        <f t="shared" si="9"/>
+        <v>3055</v>
+      </c>
+      <c r="M93">
         <f t="shared" si="10"/>
-        <v>3055</v>
-      </c>
-      <c r="M93">
+        <v>6419</v>
+      </c>
+      <c r="N93">
         <f t="shared" si="11"/>
-        <v>6419</v>
-      </c>
-      <c r="N93">
+        <v>18451</v>
+      </c>
+      <c r="O93">
         <f t="shared" si="12"/>
-        <v>18451</v>
-      </c>
-      <c r="O93">
+        <v>23565</v>
+      </c>
+      <c r="Q93">
         <f t="shared" si="13"/>
-        <v>23565</v>
-      </c>
-      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R93">
+      <c r="S93">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S93">
+      <c r="T93">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5351,35 +5351,35 @@
         <v>1</v>
       </c>
       <c r="L94">
+        <f t="shared" si="9"/>
+        <v>3871</v>
+      </c>
+      <c r="M94">
         <f t="shared" si="10"/>
-        <v>3871</v>
-      </c>
-      <c r="M94">
+        <v>8866</v>
+      </c>
+      <c r="N94">
         <f t="shared" si="11"/>
-        <v>8866</v>
-      </c>
-      <c r="N94">
+        <v>22301</v>
+      </c>
+      <c r="O94">
         <f t="shared" si="12"/>
-        <v>22301</v>
-      </c>
-      <c r="O94">
+        <v>30983</v>
+      </c>
+      <c r="Q94">
         <f t="shared" si="13"/>
-        <v>30983</v>
-      </c>
-      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R94">
+      <c r="S94">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S94">
+      <c r="T94">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5403,35 +5403,35 @@
         <v>1</v>
       </c>
       <c r="L95">
+        <f t="shared" si="9"/>
+        <v>2855</v>
+      </c>
+      <c r="M95">
         <f t="shared" si="10"/>
-        <v>2855</v>
-      </c>
-      <c r="M95">
+        <v>7100</v>
+      </c>
+      <c r="N95">
         <f t="shared" si="11"/>
-        <v>7100</v>
-      </c>
-      <c r="N95">
+        <v>15900</v>
+      </c>
+      <c r="O95">
         <f t="shared" si="12"/>
-        <v>15900</v>
-      </c>
-      <c r="O95">
+        <v>23495</v>
+      </c>
+      <c r="Q95">
         <f t="shared" si="13"/>
-        <v>23495</v>
-      </c>
-      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R95">
+      <c r="S95">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S95">
+      <c r="T95">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5455,35 +5455,35 @@
         <v>1</v>
       </c>
       <c r="L96">
+        <f t="shared" si="9"/>
+        <v>2190</v>
+      </c>
+      <c r="M96">
         <f t="shared" si="10"/>
-        <v>2190</v>
-      </c>
-      <c r="M96">
+        <v>5488</v>
+      </c>
+      <c r="N96">
         <f t="shared" si="11"/>
-        <v>5488</v>
-      </c>
-      <c r="N96">
+        <v>12319</v>
+      </c>
+      <c r="O96">
         <f t="shared" si="12"/>
-        <v>12319</v>
-      </c>
-      <c r="O96">
+        <v>18584</v>
+      </c>
+      <c r="Q96">
         <f t="shared" si="13"/>
-        <v>18584</v>
-      </c>
-      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R96">
+      <c r="S96">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S96">
+      <c r="T96">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5507,35 +5507,35 @@
         <v>1</v>
       </c>
       <c r="L97">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="M97">
         <f t="shared" si="10"/>
-        <v>3500</v>
-      </c>
-      <c r="M97">
+        <v>10599</v>
+      </c>
+      <c r="N97">
         <f t="shared" si="11"/>
-        <v>10599</v>
-      </c>
-      <c r="N97">
+        <v>24637</v>
+      </c>
+      <c r="O97">
         <f t="shared" si="12"/>
-        <v>24637</v>
-      </c>
-      <c r="O97">
+        <v>49209</v>
+      </c>
+      <c r="Q97">
         <f t="shared" si="13"/>
-        <v>49209</v>
-      </c>
-      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R97">
+      <c r="S97">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S97">
+      <c r="T97">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5559,35 +5559,35 @@
         <v>1</v>
       </c>
       <c r="L98">
+        <f t="shared" si="9"/>
+        <v>1808</v>
+      </c>
+      <c r="M98">
         <f t="shared" si="10"/>
-        <v>1808</v>
-      </c>
-      <c r="M98">
+        <v>4840</v>
+      </c>
+      <c r="N98">
         <f t="shared" si="11"/>
-        <v>4840</v>
-      </c>
-      <c r="N98">
+        <v>10773</v>
+      </c>
+      <c r="O98">
         <f t="shared" si="12"/>
-        <v>10773</v>
-      </c>
-      <c r="O98">
+        <v>16048</v>
+      </c>
+      <c r="Q98">
         <f t="shared" si="13"/>
-        <v>16048</v>
-      </c>
-      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R98">
+      <c r="S98">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S98">
+      <c r="T98">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T98">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5611,35 +5611,35 @@
         <v>1</v>
       </c>
       <c r="L99">
+        <f t="shared" si="9"/>
+        <v>1264</v>
+      </c>
+      <c r="M99">
         <f t="shared" si="10"/>
-        <v>1264</v>
-      </c>
-      <c r="M99">
+        <v>3501</v>
+      </c>
+      <c r="N99">
         <f t="shared" si="11"/>
-        <v>3501</v>
-      </c>
-      <c r="N99">
+        <v>7910</v>
+      </c>
+      <c r="O99">
         <f t="shared" si="12"/>
-        <v>7910</v>
-      </c>
-      <c r="O99">
+        <v>13655</v>
+      </c>
+      <c r="Q99">
         <f t="shared" si="13"/>
-        <v>13655</v>
-      </c>
-      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R99">
+      <c r="S99">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S99">
+      <c r="T99">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T99">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5663,35 +5663,35 @@
         <v>1</v>
       </c>
       <c r="L100">
+        <f t="shared" si="9"/>
+        <v>1047</v>
+      </c>
+      <c r="M100">
         <f t="shared" si="10"/>
-        <v>1047</v>
-      </c>
-      <c r="M100">
+        <v>3143</v>
+      </c>
+      <c r="N100">
         <f t="shared" si="11"/>
-        <v>3143</v>
-      </c>
-      <c r="N100">
+        <v>6864</v>
+      </c>
+      <c r="O100">
         <f t="shared" si="12"/>
-        <v>6864</v>
-      </c>
-      <c r="O100">
+        <v>12295</v>
+      </c>
+      <c r="Q100">
         <f t="shared" si="13"/>
-        <v>12295</v>
-      </c>
-      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R100">
+      <c r="S100">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S100">
+      <c r="T100">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5715,35 +5715,35 @@
         <v>1</v>
       </c>
       <c r="L101">
+        <f t="shared" si="9"/>
+        <v>583</v>
+      </c>
+      <c r="M101">
         <f t="shared" si="10"/>
-        <v>583</v>
-      </c>
-      <c r="M101">
+        <v>1713</v>
+      </c>
+      <c r="N101">
         <f t="shared" si="11"/>
-        <v>1713</v>
-      </c>
-      <c r="N101">
+        <v>4654</v>
+      </c>
+      <c r="O101">
         <f t="shared" si="12"/>
-        <v>4654</v>
-      </c>
-      <c r="O101">
+        <v>8452</v>
+      </c>
+      <c r="Q101">
         <f t="shared" si="13"/>
-        <v>8452</v>
-      </c>
-      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R101">
+      <c r="S101">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S101">
+      <c r="T101">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T101">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5783,35 +5783,35 @@
         <v>0</v>
       </c>
       <c r="L102">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M102">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O102">
+      <c r="Q102">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q102">
+        <v>30579</v>
+      </c>
+      <c r="R102">
         <f t="shared" si="14"/>
-        <v>30579</v>
-      </c>
-      <c r="R102">
+        <v>84329</v>
+      </c>
+      <c r="S102">
         <f t="shared" si="15"/>
-        <v>84329</v>
-      </c>
-      <c r="S102">
+        <v>204200</v>
+      </c>
+      <c r="T102">
         <f t="shared" si="16"/>
-        <v>204200</v>
-      </c>
-      <c r="T102">
-        <f t="shared" si="17"/>
         <v>379598</v>
       </c>
     </row>
@@ -5835,35 +5835,35 @@
         <v>1</v>
       </c>
       <c r="L103">
+        <f t="shared" si="9"/>
+        <v>1471</v>
+      </c>
+      <c r="M103">
         <f t="shared" si="10"/>
-        <v>1471</v>
-      </c>
-      <c r="M103">
+        <v>5160</v>
+      </c>
+      <c r="N103">
         <f t="shared" si="11"/>
-        <v>5160</v>
-      </c>
-      <c r="N103">
+        <v>16562</v>
+      </c>
+      <c r="O103">
         <f t="shared" si="12"/>
-        <v>16562</v>
-      </c>
-      <c r="O103">
+        <v>38759</v>
+      </c>
+      <c r="Q103">
         <f t="shared" si="13"/>
-        <v>38759</v>
-      </c>
-      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R103">
+      <c r="S103">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S103">
+      <c r="T103">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T103">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5887,35 +5887,35 @@
         <v>1</v>
       </c>
       <c r="L104">
+        <f t="shared" si="9"/>
+        <v>294</v>
+      </c>
+      <c r="M104">
         <f t="shared" si="10"/>
-        <v>294</v>
-      </c>
-      <c r="M104">
+        <v>650</v>
+      </c>
+      <c r="N104">
         <f t="shared" si="11"/>
-        <v>650</v>
-      </c>
-      <c r="N104">
+        <v>2381</v>
+      </c>
+      <c r="O104">
         <f t="shared" si="12"/>
-        <v>2381</v>
-      </c>
-      <c r="O104">
+        <v>3814</v>
+      </c>
+      <c r="Q104">
         <f t="shared" si="13"/>
-        <v>3814</v>
-      </c>
-      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R104">
+      <c r="S104">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S104">
+      <c r="T104">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T104">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5939,35 +5939,35 @@
         <v>1</v>
       </c>
       <c r="L105">
+        <f t="shared" si="9"/>
+        <v>378</v>
+      </c>
+      <c r="M105">
         <f t="shared" si="10"/>
-        <v>378</v>
-      </c>
-      <c r="M105">
+        <v>915</v>
+      </c>
+      <c r="N105">
         <f t="shared" si="11"/>
-        <v>915</v>
-      </c>
-      <c r="N105">
+        <v>2829</v>
+      </c>
+      <c r="O105">
         <f t="shared" si="12"/>
-        <v>2829</v>
-      </c>
-      <c r="O105">
+        <v>4458</v>
+      </c>
+      <c r="Q105">
         <f t="shared" si="13"/>
-        <v>4458</v>
-      </c>
-      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R105">
+      <c r="S105">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S105">
+      <c r="T105">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T105">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5991,35 +5991,35 @@
         <v>1</v>
       </c>
       <c r="L106">
+        <f t="shared" si="9"/>
+        <v>286</v>
+      </c>
+      <c r="M106">
         <f t="shared" si="10"/>
-        <v>286</v>
-      </c>
-      <c r="M106">
+        <v>826</v>
+      </c>
+      <c r="N106">
         <f t="shared" si="11"/>
-        <v>826</v>
-      </c>
-      <c r="N106">
+        <v>2144</v>
+      </c>
+      <c r="O106">
         <f t="shared" si="12"/>
-        <v>2144</v>
-      </c>
-      <c r="O106">
+        <v>3531</v>
+      </c>
+      <c r="Q106">
         <f t="shared" si="13"/>
-        <v>3531</v>
-      </c>
-      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R106">
+      <c r="S106">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S106">
+      <c r="T106">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T106">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6043,35 +6043,35 @@
         <v>1</v>
       </c>
       <c r="L107">
+        <f t="shared" si="9"/>
+        <v>207</v>
+      </c>
+      <c r="M107">
         <f t="shared" si="10"/>
-        <v>207</v>
-      </c>
-      <c r="M107">
+        <v>503</v>
+      </c>
+      <c r="N107">
         <f t="shared" si="11"/>
-        <v>503</v>
-      </c>
-      <c r="N107">
+        <v>1481</v>
+      </c>
+      <c r="O107">
         <f t="shared" si="12"/>
-        <v>1481</v>
-      </c>
-      <c r="O107">
+        <v>2392</v>
+      </c>
+      <c r="Q107">
         <f t="shared" si="13"/>
-        <v>2392</v>
-      </c>
-      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R107">
+      <c r="S107">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S107">
+      <c r="T107">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T107">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6095,35 +6095,35 @@
         <v>1</v>
       </c>
       <c r="L108">
+        <f t="shared" si="9"/>
+        <v>479</v>
+      </c>
+      <c r="M108">
         <f t="shared" si="10"/>
-        <v>479</v>
-      </c>
-      <c r="M108">
+        <v>1270</v>
+      </c>
+      <c r="N108">
         <f t="shared" si="11"/>
-        <v>1270</v>
-      </c>
-      <c r="N108">
+        <v>5184</v>
+      </c>
+      <c r="O108">
         <f t="shared" si="12"/>
-        <v>5184</v>
-      </c>
-      <c r="O108">
+        <v>9072</v>
+      </c>
+      <c r="Q108">
         <f t="shared" si="13"/>
-        <v>9072</v>
-      </c>
-      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R108">
+      <c r="S108">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S108">
+      <c r="T108">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T108">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6147,35 +6147,35 @@
         <v>1</v>
       </c>
       <c r="L109">
+        <f t="shared" si="9"/>
+        <v>265</v>
+      </c>
+      <c r="M109">
         <f t="shared" si="10"/>
-        <v>265</v>
-      </c>
-      <c r="M109">
+        <v>741</v>
+      </c>
+      <c r="N109">
         <f t="shared" si="11"/>
-        <v>741</v>
-      </c>
-      <c r="N109">
+        <v>2186</v>
+      </c>
+      <c r="O109">
         <f t="shared" si="12"/>
-        <v>2186</v>
-      </c>
-      <c r="O109">
+        <v>3439</v>
+      </c>
+      <c r="Q109">
         <f t="shared" si="13"/>
-        <v>3439</v>
-      </c>
-      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R109">
+      <c r="S109">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S109">
+      <c r="T109">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T109">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6199,35 +6199,35 @@
         <v>1</v>
       </c>
       <c r="L110">
+        <f t="shared" si="9"/>
+        <v>193</v>
+      </c>
+      <c r="M110">
         <f t="shared" si="10"/>
-        <v>193</v>
-      </c>
-      <c r="M110">
+        <v>465</v>
+      </c>
+      <c r="N110">
         <f t="shared" si="11"/>
-        <v>465</v>
-      </c>
-      <c r="N110">
+        <v>1653</v>
+      </c>
+      <c r="O110">
         <f t="shared" si="12"/>
-        <v>1653</v>
-      </c>
-      <c r="O110">
+        <v>2664</v>
+      </c>
+      <c r="Q110">
         <f t="shared" si="13"/>
-        <v>2664</v>
-      </c>
-      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R110">
+      <c r="S110">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S110">
+      <c r="T110">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T110">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6251,35 +6251,35 @@
         <v>1</v>
       </c>
       <c r="L111">
+        <f t="shared" si="9"/>
+        <v>181</v>
+      </c>
+      <c r="M111">
         <f t="shared" si="10"/>
-        <v>181</v>
-      </c>
-      <c r="M111">
+        <v>484</v>
+      </c>
+      <c r="N111">
         <f t="shared" si="11"/>
-        <v>484</v>
-      </c>
-      <c r="N111">
+        <v>1723</v>
+      </c>
+      <c r="O111">
         <f t="shared" si="12"/>
-        <v>1723</v>
-      </c>
-      <c r="O111">
+        <v>3015</v>
+      </c>
+      <c r="Q111">
         <f t="shared" si="13"/>
-        <v>3015</v>
-      </c>
-      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R111">
+      <c r="S111">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S111">
+      <c r="T111">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T111">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6303,39 +6303,39 @@
         <v>1</v>
       </c>
       <c r="L112">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="M112">
         <f t="shared" si="10"/>
-        <v>113</v>
-      </c>
-      <c r="M112">
+        <v>208</v>
+      </c>
+      <c r="N112">
         <f t="shared" si="11"/>
-        <v>208</v>
-      </c>
-      <c r="N112">
+        <v>904</v>
+      </c>
+      <c r="O112">
         <f t="shared" si="12"/>
-        <v>904</v>
-      </c>
-      <c r="O112">
+        <v>1861</v>
+      </c>
+      <c r="Q112">
         <f t="shared" si="13"/>
-        <v>1861</v>
-      </c>
-      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R112">
+      <c r="S112">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S112">
+      <c r="T112">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T112">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -6355,39 +6355,39 @@
         <v>1</v>
       </c>
       <c r="L113">
+        <f t="shared" si="9"/>
+        <v>671</v>
+      </c>
+      <c r="M113">
         <f t="shared" si="10"/>
-        <v>671</v>
-      </c>
-      <c r="M113">
+        <v>1659</v>
+      </c>
+      <c r="N113">
         <f t="shared" si="11"/>
-        <v>1659</v>
-      </c>
-      <c r="N113">
+        <v>10430</v>
+      </c>
+      <c r="O113">
         <f t="shared" si="12"/>
-        <v>10430</v>
-      </c>
-      <c r="O113">
+        <v>16663</v>
+      </c>
+      <c r="Q113">
         <f t="shared" si="13"/>
-        <v>16663</v>
-      </c>
-      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R113">
+      <c r="S113">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S113">
+      <c r="T113">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T113">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -6423,39 +6423,39 @@
         <v>0</v>
       </c>
       <c r="L114">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M114">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M114">
+      <c r="N114">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N114">
+      <c r="O114">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O114">
+      <c r="Q114">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q114">
+        <v>4538</v>
+      </c>
+      <c r="R114">
         <f t="shared" si="14"/>
-        <v>4538</v>
-      </c>
-      <c r="R114">
+        <v>12881</v>
+      </c>
+      <c r="S114">
         <f t="shared" si="15"/>
-        <v>12881</v>
-      </c>
-      <c r="S114">
+        <v>47474</v>
+      </c>
+      <c r="T114">
         <f t="shared" si="16"/>
-        <v>47474</v>
-      </c>
-      <c r="T114">
-        <f t="shared" si="17"/>
         <v>89668</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -6475,39 +6475,39 @@
         <v>1</v>
       </c>
       <c r="L115">
+        <f t="shared" si="9"/>
+        <v>7628</v>
+      </c>
+      <c r="M115">
         <f t="shared" si="10"/>
+        <v>4508</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="11"/>
+        <v>33587</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="12"/>
+        <v>17331</v>
+      </c>
+      <c r="Q115" s="1">
+        <f>B115</f>
         <v>7628</v>
       </c>
-      <c r="M115">
-        <f t="shared" si="11"/>
+      <c r="R115" s="1">
+        <f>C115</f>
         <v>4508</v>
       </c>
-      <c r="N115">
-        <f t="shared" si="12"/>
+      <c r="S115" s="1">
+        <f>D115</f>
         <v>33587</v>
       </c>
-      <c r="O115">
-        <f t="shared" si="13"/>
+      <c r="T115" s="1">
+        <f>E115</f>
         <v>17331</v>
       </c>
-      <c r="Q115">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S115">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T115">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>61507772</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J118" t="s">
         <v>10</v>
       </c>
@@ -6547,22 +6547,22 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1">
         <f>SUM(Q4:Q115)</f>
-        <v>20350303</v>
+        <v>20905630</v>
       </c>
       <c r="R118" s="1">
         <f>SUM(R4:R115)</f>
-        <v>22291020</v>
+        <v>22823884</v>
       </c>
       <c r="S118" s="1">
         <f>SUM(S4:S115)</f>
-        <v>52952794</v>
+        <v>54884262</v>
       </c>
       <c r="T118" s="1">
         <f>SUM(T4:T115)</f>
-        <v>59650922</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+        <v>61507772</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C119" s="1">
         <f>SUM(B116:E116)</f>
         <v>160121599</v>
@@ -6587,21 +6587,22 @@
         <v>0</v>
       </c>
       <c r="Q119" s="1">
-        <f>Q118-B116+B4+B115</f>
+        <f>Q118-B116</f>
         <v>-51</v>
       </c>
       <c r="R119" s="1">
-        <f t="shared" ref="R119:T119" si="18">R118-C116+C4+C115</f>
+        <f>R118-C116</f>
         <v>0</v>
       </c>
       <c r="S119" s="1">
-        <f t="shared" si="18"/>
+        <f>S118-D116</f>
         <v>0</v>
       </c>
       <c r="T119" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
+        <f>T118-E116</f>
+        <v>0</v>
+      </c>
+      <c r="U119" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
